--- a/src/test/testdata/TestData.xlsx
+++ b/src/test/testdata/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>111633332215&amp;</t>
+  </si>
+  <si>
+    <t>Amira</t>
+  </si>
+  <si>
+    <t>1116332215&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-edit Mobile Nuber while login </t>
   </si>
 </sst>
 </file>
@@ -117,11 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
   </cols>
@@ -447,6 +459,17 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/testdata/TestData.xlsx
+++ b/src/test/testdata/TestData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8616" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Locations" sheetId="2" r:id="rId2"/>
+    <sheet name="Request" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -417,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,4 +530,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/testdata/TestData.xlsx
+++ b/src/test/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8616" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -40,9 +40,6 @@
     <t>TestCase</t>
   </si>
   <si>
-    <t>1021132355&amp;</t>
-  </si>
-  <si>
     <t>Amiraaa</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>Towing destination Location</t>
   </si>
   <si>
-    <t>مستشفي شفا التخصصي - شارع, التسعين الشمالي، محافظة القاهرة‬</t>
-  </si>
-  <si>
     <t xml:space="preserve">TestCase </t>
   </si>
   <si>
@@ -89,6 +83,21 @@
   </si>
   <si>
     <t xml:space="preserve">03-edit Mobile Nuber while login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid PickUp Location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_valid location </t>
+  </si>
+  <si>
+    <t>1 18a St - Al Murar - Dubai - United Arab Emirates</t>
+  </si>
+  <si>
+    <t>International City - Warsan 2 - Dubai - United Arab Emirates</t>
+  </si>
+  <si>
+    <t>1117777778&amp;</t>
   </si>
 </sst>
 </file>
@@ -127,14 +136,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,35 +462,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -481,10 +501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,35 +516,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/testdata/TestData.xlsx
+++ b/src/test/testdata/TestData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8616" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Locations" sheetId="2" r:id="rId2"/>
     <sheet name="Request" sheetId="3" r:id="rId3"/>
+    <sheet name="Location" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -91,13 +92,37 @@
     <t xml:space="preserve">03_valid location </t>
   </si>
   <si>
-    <t>1 18a St - Al Murar - Dubai - United Arab Emirates</t>
-  </si>
-  <si>
-    <t>International City - Warsan 2 - Dubai - United Arab Emirates</t>
-  </si>
-  <si>
-    <t>1117777778&amp;</t>
+    <t>EL، N Teseen St, Cairo Governorate</t>
+  </si>
+  <si>
+    <t>Cairo Festival City, S Teseen, New Cairo 1, Cairo Governorate 11226</t>
+  </si>
+  <si>
+    <t>1021132355&amp;</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>30.23939311111111111&amp;</t>
+  </si>
+  <si>
+    <t>31.4832722222222&amp;</t>
+  </si>
+  <si>
+    <t>30.239298333333333333&amp;</t>
+  </si>
+  <si>
+    <t>31.48378833444444444&amp;</t>
+  </si>
+  <si>
+    <t>55.391855555555&amp;</t>
+  </si>
+  <si>
+    <t>31.4837886666666666&amp;</t>
   </si>
 </sst>
 </file>
@@ -136,15 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -438,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,14 +525,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -525,22 +546,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -548,10 +569,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
@@ -575,4 +596,51 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>